--- a/Financials/MSCI.xlsx
+++ b/Financials/MSCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB88B3A-10AC-4F44-9A21-378F21CCFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148D50C8-0047-124F-AC5A-775EE0BF1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28900" yWindow="500" windowWidth="22380" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -408,9 +445,6 @@
   </si>
   <si>
     <t>P/FCF</t>
-  </si>
-  <si>
-    <t>MSCI</t>
   </si>
   <si>
     <t>Weighted Average Cost of Capital</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +963,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,11 +995,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -999,6 +1023,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2211,6 +2239,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xz1h&amp;q=XNYS%3aMSCI&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>MSCI INC. (XNYS:MSCI)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1xz1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>572.5</v>
+    <v>376.41</v>
+    <v>1.1511</v>
+    <v>-4.72</v>
+    <v>-8.7670000000000005E-3</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>MSCI Inc. (MSCI) is a provider of critical decision support tools and solutions for the global investment community. The Company operates through four segments: Index, Analytics, ESG and Climate, and All Other-Private Assets. Its Index segment offers products, such as MSCI Global Equity Indexes, ESG and Climate Indexes, Factor Indexes, Thematic Indexes, Custom Indexes, Fixed Income Indexes and Real Estate Indexes. Its Analytics segment offers risk management, performance attribution and portfolio management content, applications and services. Its ESG and Climate segment offerings include MSCI ESG Ratings, MSCI ESG Business Involvement Screening Research, and MSCI Climate Solutions. Its All Other-Private Assets segment comprises the Real Estate and Burgiss segments. The Real Estate segment offerings include offerings include transaction data, benchmarks, return-analytics, climate assessments and market insights for tangible assets, such as real estate and infrastructure.</v>
+    <v>4759</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>250 Greenwich Street, 49Th Floor, 7 World Trade Center, NEW YORK, NY, 10007 US</v>
+    <v>537.39</v>
+    <v>Professional &amp; Commercial Services</v>
+    <v>Stock</v>
+    <v>45022.958333356248</v>
+    <v>0</v>
+    <v>532.36</v>
+    <v>42725630000</v>
+    <v>MSCI INC.</v>
+    <v>MSCI INC.</v>
+    <v>534.21</v>
+    <v>50.2318</v>
+    <v>538.37</v>
+    <v>533.65</v>
+    <v>533.65</v>
+    <v>80063020</v>
+    <v>MSCI</v>
+    <v>MSCI INC. (XNYS:MSCI)</v>
+    <v>333499</v>
+    <v>447745</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2511,10 +2979,10 @@
   <dimension ref="A1:AD118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W64" sqref="W64"/>
+      <selection pane="bottomRight" activeCell="V106" sqref="V106:Z106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,8 +2993,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>125</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2003</v>
@@ -3815,15 +4283,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC101/U3</f>
-        <v>18.572016874514699</v>
+        <v>19.001008628487618</v>
       </c>
       <c r="AC16" s="30">
         <f>AC101/U28</f>
-        <v>47.969555683440674</v>
+        <v>49.077596020092514</v>
       </c>
       <c r="AD16" s="31">
         <f>AC101/U106</f>
-        <v>38.604966757630216</v>
+        <v>39.496696100400094</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -3956,7 +4424,7 @@
         <v>115603000</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4023,7 +4491,7 @@
       <c r="U19" s="10">
         <v>1331015000</v>
       </c>
-      <c r="AA19" s="61">
+      <c r="AA19" s="54">
         <f>U40-U56-U61</f>
         <v>-3649957000</v>
       </c>
@@ -8258,10 +8726,10 @@
       <c r="U83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC83" s="65"/>
+      <c r="AB83" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC83" s="58"/>
     </row>
     <row r="84" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8327,10 +8795,10 @@
       <c r="U84" s="1">
         <v>1337000</v>
       </c>
-      <c r="AB84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC84" s="67"/>
+      <c r="AB84" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC84" s="60"/>
     </row>
     <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8397,7 +8865,7 @@
         <v>92</v>
       </c>
       <c r="AB85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC85" s="24">
         <f>U17</f>
@@ -8469,7 +8937,7 @@
         <v>92</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC86" s="24">
         <f>U56</f>
@@ -8541,7 +9009,7 @@
         <v>1095369000</v>
       </c>
       <c r="AB87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC87" s="24">
         <f>U61</f>
@@ -8613,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC88" s="33">
         <f>AC85/(AC86+AC87)</f>
@@ -8849,7 +9317,7 @@
         <v>92</v>
       </c>
       <c r="AB91" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC91" s="33">
         <f>AC89/AC90</f>
@@ -8921,7 +9389,7 @@
         <v>92</v>
       </c>
       <c r="AB92" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC92" s="35">
         <f>AC88*(1-AC91)</f>
@@ -8992,10 +9460,10 @@
       <c r="U93" s="1">
         <v>-79335000</v>
       </c>
-      <c r="AB93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC93" s="67"/>
+      <c r="AB93" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC93" s="60"/>
     </row>
     <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9062,7 +9530,7 @@
         <v>-79335000</v>
       </c>
       <c r="AB94" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC94" s="36">
         <v>4.095E-2</v>
@@ -9132,11 +9600,12 @@
       <c r="U95" s="1">
         <v>-9748000</v>
       </c>
-      <c r="AB95" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC95" s="38">
-        <v>1.1299999999999999</v>
+      <c r="AB95" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC95" s="61" cm="1">
+        <f t="array" ref="AC95">_FV(A1,"Beta")</f>
+        <v>1.1511</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9204,7 +9673,7 @@
         <v>92</v>
       </c>
       <c r="AB96" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -9275,11 +9744,11 @@
         <v>-1397506000</v>
       </c>
       <c r="AB97" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC97" s="35">
         <f>(AC94)+((AC95)*(AC96-AC94))</f>
-        <v>8.9596499999999996E-2</v>
+        <v>9.0504855000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9346,10 +9815,10 @@
       <c r="U98" s="1">
         <v>-372915000</v>
       </c>
-      <c r="AB98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC98" s="67"/>
+      <c r="AB98" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC98" s="60"/>
     </row>
     <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9416,7 +9885,7 @@
         <v>354789000</v>
       </c>
       <c r="AB99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC99" s="24">
         <f>AC86+AC87</f>
@@ -9488,11 +9957,11 @@
         <v>-1425380000</v>
       </c>
       <c r="AB100" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC100" s="33">
         <f>AC99/AC103</f>
-        <v>0.10006613364245263</v>
+        <v>9.8028377160485736E-2</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9559,11 +10028,12 @@
       <c r="U101" s="1">
         <v>-18539000</v>
       </c>
-      <c r="AB101" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC101" s="39">
-        <v>41761000000</v>
+      <c r="AB101" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC101" s="48" cm="1">
+        <f t="array" ref="AC101">_FV(A1,"Market cap",TRUE)</f>
+        <v>42725630000</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9631,11 +10101,11 @@
         <v>-427885000</v>
       </c>
       <c r="AB102" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC102" s="33">
         <f>AC101/AC103</f>
-        <v>0.89993386635754735</v>
+        <v>0.90197162283951426</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9703,11 +10173,11 @@
         <v>1421449000</v>
       </c>
       <c r="AB103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC103" s="40">
+        <v>143</v>
+      </c>
+      <c r="AC103" s="37">
         <f>AC99+AC101</f>
-        <v>46404521000</v>
+        <v>47369151000</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9774,10 +10244,10 @@
       <c r="U104" s="11">
         <v>993564000</v>
       </c>
-      <c r="AB104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC104" s="67"/>
+      <c r="AB104" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC104" s="60"/>
     </row>
     <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9871,7 +10341,7 @@
       </c>
       <c r="AC105" s="26">
         <f>(AC100*AC92)+(AC102*AC97)</f>
-        <v>8.3714499054755268E-2</v>
+        <v>8.4653591127789515E-2</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9938,33 +10408,33 @@
       <c r="U106" s="1">
         <v>1081752000</v>
       </c>
-      <c r="V106" s="41">
+      <c r="V106" s="64">
         <f>U106*(1+$AC$106)</f>
         <v>1187583770.6907587</v>
       </c>
-      <c r="W106" s="41">
+      <c r="W106" s="64">
         <f t="shared" ref="W106:Z106" si="9">V106*(1+$AC$106)</f>
         <v>1303769452.1554668</v>
       </c>
-      <c r="X106" s="41">
+      <c r="X106" s="64">
         <f t="shared" si="9"/>
         <v>1431322005.5079298</v>
       </c>
-      <c r="Y106" s="41">
+      <c r="Y106" s="64">
         <f t="shared" si="9"/>
         <v>1571353493.5676258</v>
       </c>
-      <c r="Z106" s="41">
+      <c r="Z106" s="64">
         <f t="shared" si="9"/>
         <v>1725084776.3435037</v>
       </c>
-      <c r="AA106" s="42" t="s">
+      <c r="AA106" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AB106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC106" s="44">
+      <c r="AC106" s="40">
         <f>(SUM(V4:Z4)/5)</f>
         <v>9.7833672311915171E-2</v>
       </c>
@@ -9991,138 +10461,139 @@
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="45">
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="41">
         <f>Z106*(1+AC107)/(AC108-AC107)</f>
-        <v>30115421645.735462</v>
-      </c>
-      <c r="AA107" s="46" t="s">
+        <v>29641331935.31031</v>
+      </c>
+      <c r="AA107" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AB107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC107" s="48">
+      <c r="AC107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V108" s="45">
+      <c r="V108" s="41">
         <f t="shared" ref="V108:X108" si="10">V107+V106</f>
         <v>1187583770.6907587</v>
       </c>
-      <c r="W108" s="45">
+      <c r="W108" s="41">
         <f t="shared" si="10"/>
         <v>1303769452.1554668</v>
       </c>
-      <c r="X108" s="45">
+      <c r="X108" s="41">
         <f t="shared" si="10"/>
         <v>1431322005.5079298</v>
       </c>
-      <c r="Y108" s="45">
+      <c r="Y108" s="41">
         <f>Y107+Y106</f>
         <v>1571353493.5676258</v>
       </c>
-      <c r="Z108" s="45">
+      <c r="Z108" s="41">
         <f>Z107+Z106</f>
-        <v>31840506422.078964</v>
-      </c>
-      <c r="AA108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB108" s="49" t="s">
+        <v>31366416711.653812</v>
+      </c>
+      <c r="AA108" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB108" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC108" s="46">
+        <f>AC105</f>
+        <v>8.4653591127789515E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V109" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="AC108" s="50">
-        <f>AC105</f>
-        <v>8.3714499054755268E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V109" s="62" t="s">
+      <c r="W109" s="56"/>
+    </row>
+    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="W109" s="63"/>
-    </row>
-    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V110" s="51" t="s">
+      <c r="W110" s="48">
+        <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
+        <v>25353487132.523266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="W110" s="52">
-        <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
-        <v>25771064683.32373</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="W111" s="52">
+      <c r="W111" s="48">
         <f>U40</f>
         <v>993564000</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="W112" s="52">
+      <c r="V112" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="W112" s="48">
         <f>AC99</f>
         <v>4643521000</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V113" s="51" t="s">
+      <c r="V113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="W113" s="48">
+        <f>W110+W111-W112</f>
+        <v>21703530132.523266</v>
+      </c>
+    </row>
+    <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="W113" s="52">
-        <f>W110+W111-W112</f>
-        <v>22121107683.32373</v>
-      </c>
-    </row>
-    <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="W114" s="53">
+      <c r="W114" s="49">
         <f>U34*(1+(5*AA16))</f>
         <v>71322592.003785536</v>
       </c>
     </row>
     <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V115" s="54" t="s">
+      <c r="V115" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="W115" s="63">
+        <f>W113/W114</f>
+        <v>304.30091676100784</v>
+      </c>
+    </row>
+    <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="W115" s="55">
-        <f>W113/W114</f>
-        <v>310.15568926813017</v>
-      </c>
-    </row>
-    <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V116" s="56" t="s">
+      <c r="W116" s="62" cm="1">
+        <f t="array" ref="W116">_FV(A1,"Price")</f>
+        <v>533.65</v>
+      </c>
+    </row>
+    <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="W116" s="57">
-        <v>522.27</v>
-      </c>
-    </row>
-    <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V117" s="58" t="s">
+      <c r="W117" s="52">
+        <f>W115/W116-1</f>
+        <v>-0.42977435255128293</v>
+      </c>
+    </row>
+    <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V118" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="W117" s="59">
-        <f>W115/W116-1</f>
-        <v>-0.40613918228477575</v>
-      </c>
-    </row>
-    <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V118" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="W118" s="60" t="str">
+      <c r="W118" s="53" t="str">
         <f>IF(W115&gt;W116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
